--- a/DaZhongTransitionLiquidation/Temp/VoucherReport1.xlsx
+++ b/DaZhongTransitionLiquidation/Temp/VoucherReport1.xlsx
@@ -25,19 +25,13 @@
     <t>大众交通(集团)股份有限公司大众出租汽车分公司</t>
   </si>
   <si>
-    <t>会计期</t>
-  </si>
-  <si>
     <t>2019-10-01</t>
   </si>
   <si>
     <t>银行类20191012</t>
   </si>
   <si>
-    <t>2019100054</t>
-  </si>
-  <si>
-    <t>币  种</t>
+    <t>2019100054-1</t>
   </si>
   <si>
     <t>RMB</t>
@@ -86,9 +80,6 @@
 大众交通(集团)股份有限公司大众出租汽车分公司.应付职工薪酬.离职后福利.养老保险金.缺省.客服.管理及后勤人员.缺省.缺省</t>
   </si>
   <si>
-    <t>6703.90</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -99,6 +90,15 @@
   </si>
   <si>
     <t>张</t>
+  </si>
+  <si>
+    <t>会计期:</t>
+  </si>
+  <si>
+    <t>币  种:</t>
+  </si>
+  <si>
+    <t>6,703.90</t>
   </si>
   <si>
     <t>2019-10-12</t>
@@ -123,14 +123,14 @@
 大众交通(集团)股份有限公司大众出租汽车分公司.银行存款.人民币.一般户.上海银行徐汇支行.缺省.缺省.缺省.缺省</t>
   </si>
   <si>
-    <t>22570.00</t>
+    <t>22,570.00</t>
   </si>
   <si>
     <t>01.22110301.0.1011.3001.0.0
 大众交通(集团)股份有限公司大众出租汽车分公司.应付职工薪酬.社会保险费.医疗保险金.缺省.客服.管理及后勤人员.缺省.缺省</t>
   </si>
   <si>
-    <t>3980.40</t>
+    <t>3,980.40</t>
   </si>
   <si>
     <t>01.22112003.0.1011.3001.0.0
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +212,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,23 +237,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -319,7 +326,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -333,15 +340,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,14 +373,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -366,25 +394,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,7 +758,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="130" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="T4" sqref="T4"/>
+      <selection pane="topLeft" activeCell="P7" sqref="P7:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -751,29 +767,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
       <c r="V1" s="3"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -786,33 +802,33 @@
     <row r="2" spans="1:29" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="N2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
       <c r="V2" s="3"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -825,401 +841,401 @@
     <row r="3" spans="1:21" ht="14.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="7">
+        <v>5</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="22">
-        <v>5</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="5" t="s">
+      <c r="T6" s="24"/>
+      <c r="U6" s="25"/>
+    </row>
+    <row r="7" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="24"/>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="24"/>
+      <c r="U8" s="25"/>
+    </row>
+    <row r="9" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="24"/>
+      <c r="U9" s="25"/>
+    </row>
+    <row r="10" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="24"/>
+      <c r="U10" s="25"/>
+    </row>
+    <row r="11" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" ht="35.25" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="U12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="13"/>
-    </row>
-    <row r="7" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-    </row>
-    <row r="8" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
-    </row>
-    <row r="9" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
-    </row>
-    <row r="11" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="13"/>
-    </row>
-    <row r="12" spans="1:21" ht="35.25" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
-    </row>
-    <row r="13" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="18" t="s">
+      <c r="T14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" s="18"/>
+      <c r="U14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="G13:O13"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="S13:U13"/>
+    <mergeCell ref="G13:O13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="G6:O6"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="P6:R6"/>
